--- a/data/league_data/spain/21/spain_std.xlsx
+++ b/data/league_data/spain/21/spain_std.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA123868-A370-B44C-9662-9A2678805F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB1C42A-181C-DA44-9B80-319ACFBF44AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14220"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="535">
   <si>
     <t>Player</t>
   </si>
@@ -1351,9 +1351,6 @@
     <t>Facundo Pellistri</t>
   </si>
   <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
     <t>Eden Hazard</t>
   </si>
   <si>
@@ -1393,9 +1390,6 @@
     <t>Okay Yokuşlu</t>
   </si>
   <si>
-    <t>Javi Martínez</t>
-  </si>
-  <si>
     <t>Kenan Kodro</t>
   </si>
   <si>
@@ -1616,12 +1610,27 @@
   </si>
   <si>
     <t>Gabriel Veiga</t>
+  </si>
+  <si>
+    <t>Jota Peleteiro</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Rodrigo Sanchez</t>
+  </si>
+  <si>
+    <t>Javi Martínez Calvo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2482,11 +2491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="A423" sqref="A423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16212,7 +16221,7 @@
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>204</v>
+        <v>531</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>21</v>
@@ -19283,7 +19292,7 @@
     </row>
     <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>240</v>
+        <v>532</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>29</v>
@@ -23433,7 +23442,7 @@
     </row>
     <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>290</v>
+        <v>530</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>27</v>
@@ -36280,7 +36289,7 @@
     </row>
     <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
-        <v>443</v>
+        <v>533</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>52</v>
@@ -36363,7 +36372,7 @@
     </row>
     <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>21</v>
@@ -36446,7 +36455,7 @@
     </row>
     <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>70</v>
@@ -36529,7 +36538,7 @@
     </row>
     <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>23</v>
@@ -36612,7 +36621,7 @@
     </row>
     <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>23</v>
@@ -36695,7 +36704,7 @@
     </row>
     <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>21</v>
@@ -36778,7 +36787,7 @@
     </row>
     <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>57</v>
@@ -36861,7 +36870,7 @@
     </row>
     <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>25</v>
@@ -37027,7 +37036,7 @@
     </row>
     <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>75</v>
@@ -37110,7 +37119,7 @@
     </row>
     <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>64</v>
@@ -37193,7 +37202,7 @@
     </row>
     <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>75</v>
@@ -37276,7 +37285,7 @@
     </row>
     <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>37</v>
@@ -37359,7 +37368,7 @@
     </row>
     <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>27</v>
@@ -37442,7 +37451,7 @@
     </row>
     <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>75</v>
@@ -37525,7 +37534,7 @@
     </row>
     <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
-        <v>457</v>
+        <v>534</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>37</v>
@@ -37608,7 +37617,7 @@
     </row>
     <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>129</v>
@@ -37691,7 +37700,7 @@
     </row>
     <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>27</v>
@@ -37774,7 +37783,7 @@
     </row>
     <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>64</v>
@@ -37857,7 +37866,7 @@
     </row>
     <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>72</v>
@@ -37940,7 +37949,7 @@
     </row>
     <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>57</v>
@@ -38023,7 +38032,7 @@
     </row>
     <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>55</v>
@@ -38189,7 +38198,7 @@
     </row>
     <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>39</v>
@@ -38272,7 +38281,7 @@
     </row>
     <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>35</v>
@@ -38355,7 +38364,7 @@
     </row>
     <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>64</v>
@@ -38438,7 +38447,7 @@
     </row>
     <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>29</v>
@@ -38521,7 +38530,7 @@
     </row>
     <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>31</v>
@@ -38604,7 +38613,7 @@
     </row>
     <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>70</v>
@@ -38687,7 +38696,7 @@
     </row>
     <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>72</v>
@@ -38770,7 +38779,7 @@
     </row>
     <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>25</v>
@@ -38853,7 +38862,7 @@
     </row>
     <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>70</v>
@@ -38936,7 +38945,7 @@
     </row>
     <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>52</v>
@@ -39019,7 +39028,7 @@
     </row>
     <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>129</v>
@@ -39102,7 +39111,7 @@
     </row>
     <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>25</v>
@@ -39185,7 +39194,7 @@
     </row>
     <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>70</v>
@@ -39268,7 +39277,7 @@
     </row>
     <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>64</v>
@@ -39351,7 +39360,7 @@
     </row>
     <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>75</v>
@@ -39434,7 +39443,7 @@
     </row>
     <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>70</v>
@@ -39517,7 +39526,7 @@
     </row>
     <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>33</v>
@@ -39600,7 +39609,7 @@
     </row>
     <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>72</v>
@@ -39683,7 +39692,7 @@
     </row>
     <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>25</v>
@@ -39766,7 +39775,7 @@
     </row>
     <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>55</v>
@@ -39849,7 +39858,7 @@
     </row>
     <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>21</v>
@@ -39932,7 +39941,7 @@
     </row>
     <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>37</v>
@@ -40015,7 +40024,7 @@
     </row>
     <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>75</v>
@@ -40098,7 +40107,7 @@
     </row>
     <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>39</v>
@@ -40264,7 +40273,7 @@
     </row>
     <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>23</v>
@@ -40347,7 +40356,7 @@
     </row>
     <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>35</v>
@@ -40430,7 +40439,7 @@
     </row>
     <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>44</v>
@@ -40513,7 +40522,7 @@
     </row>
     <row r="459" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>35</v>
@@ -40596,7 +40605,7 @@
     </row>
     <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>64</v>
@@ -40679,7 +40688,7 @@
     </row>
     <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>37</v>
@@ -40762,7 +40771,7 @@
     </row>
     <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>72</v>
@@ -40845,7 +40854,7 @@
     </row>
     <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>75</v>
@@ -40928,7 +40937,7 @@
     </row>
     <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>72</v>
@@ -41011,7 +41020,7 @@
     </row>
     <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>70</v>
@@ -41094,7 +41103,7 @@
     </row>
     <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>27</v>
@@ -41177,7 +41186,7 @@
     </row>
     <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>52</v>
@@ -41260,7 +41269,7 @@
     </row>
     <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>85</v>
@@ -41325,7 +41334,7 @@
     </row>
     <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>21</v>
@@ -41408,7 +41417,7 @@
     </row>
     <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>55</v>
@@ -41491,7 +41500,7 @@
     </row>
     <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>21</v>
@@ -41574,7 +41583,7 @@
     </row>
     <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>27</v>
@@ -41657,7 +41666,7 @@
     </row>
     <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>23</v>
@@ -41740,7 +41749,7 @@
     </row>
     <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>27</v>
@@ -41823,7 +41832,7 @@
     </row>
     <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>37</v>
@@ -41906,7 +41915,7 @@
     </row>
     <row r="476" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>23</v>
@@ -41989,7 +41998,7 @@
     </row>
     <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>55</v>
@@ -42072,7 +42081,7 @@
     </row>
     <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>39</v>
@@ -42155,7 +42164,7 @@
     </row>
     <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>33</v>
@@ -42238,7 +42247,7 @@
     </row>
     <row r="480" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>37</v>
@@ -42321,7 +42330,7 @@
     </row>
     <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>55</v>
@@ -42404,7 +42413,7 @@
     </row>
     <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>70</v>
@@ -42487,7 +42496,7 @@
     </row>
     <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>33</v>
@@ -42570,7 +42579,7 @@
     </row>
     <row r="484" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>44</v>
@@ -42653,7 +42662,7 @@
     </row>
     <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>129</v>
@@ -42736,7 +42745,7 @@
     </row>
     <row r="486" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>64</v>
@@ -42819,7 +42828,7 @@
     </row>
     <row r="487" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>37</v>
@@ -42902,7 +42911,7 @@
     </row>
     <row r="488" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>39</v>
@@ -42985,7 +42994,7 @@
     </row>
     <row r="489" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>57</v>
@@ -43068,7 +43077,7 @@
     </row>
     <row r="490" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>55</v>
@@ -43151,7 +43160,7 @@
     </row>
     <row r="491" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>33</v>
@@ -43234,7 +43243,7 @@
     </row>
     <row r="492" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>21</v>
@@ -43317,7 +43326,7 @@
     </row>
     <row r="493" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>75</v>
@@ -43400,7 +43409,7 @@
     </row>
     <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>57</v>
@@ -43483,7 +43492,7 @@
     </row>
     <row r="495" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>44</v>
@@ -43566,7 +43575,7 @@
     </row>
     <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>33</v>
@@ -43649,7 +43658,7 @@
     </row>
     <row r="497" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>129</v>
@@ -43732,7 +43741,7 @@
     </row>
     <row r="498" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>21</v>
@@ -43815,7 +43824,7 @@
     </row>
     <row r="499" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>21</v>
@@ -43898,7 +43907,7 @@
     </row>
     <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>75</v>

--- a/data/league_data/spain/21/spain_std.xlsx
+++ b/data/league_data/spain/21/spain_std.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB1C42A-181C-DA44-9B80-319ACFBF44AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8F16D0-55CF-914D-8140-5770F8FC5514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -805,9 +805,6 @@
     <t>João Félix</t>
   </si>
   <si>
-    <t>Sergio Álvarez</t>
-  </si>
-  <si>
     <t>Martin Agirregabiria</t>
   </si>
   <si>
@@ -1625,6 +1622,9 @@
   </si>
   <si>
     <t>Javi Martínez Calvo</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
   </si>
 </sst>
 </file>
@@ -2494,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16221,7 +16221,7 @@
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>21</v>
@@ -19292,7 +19292,7 @@
     </row>
     <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>29</v>
@@ -21035,7 +21035,7 @@
     </row>
     <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>261</v>
+        <v>534</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>39</v>
@@ -21118,7 +21118,7 @@
     </row>
     <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>27</v>
@@ -21201,7 +21201,7 @@
     </row>
     <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>70</v>
@@ -21284,7 +21284,7 @@
     </row>
     <row r="227" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>37</v>
@@ -21367,7 +21367,7 @@
     </row>
     <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>33</v>
@@ -21450,7 +21450,7 @@
     </row>
     <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>37</v>
@@ -21533,7 +21533,7 @@
     </row>
     <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>75</v>
@@ -21616,7 +21616,7 @@
     </row>
     <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>55</v>
@@ -21699,7 +21699,7 @@
     </row>
     <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>39</v>
@@ -21782,7 +21782,7 @@
     </row>
     <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>70</v>
@@ -21865,7 +21865,7 @@
     </row>
     <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>29</v>
@@ -21948,7 +21948,7 @@
     </row>
     <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>35</v>
@@ -22031,7 +22031,7 @@
     </row>
     <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>35</v>
@@ -22114,7 +22114,7 @@
     </row>
     <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>72</v>
@@ -22197,7 +22197,7 @@
     </row>
     <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>72</v>
@@ -22280,7 +22280,7 @@
     </row>
     <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>31</v>
@@ -22363,7 +22363,7 @@
     </row>
     <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>129</v>
@@ -22446,7 +22446,7 @@
     </row>
     <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>70</v>
@@ -22529,7 +22529,7 @@
     </row>
     <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>44</v>
@@ -22612,7 +22612,7 @@
     </row>
     <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>72</v>
@@ -22695,7 +22695,7 @@
     </row>
     <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>37</v>
@@ -22778,7 +22778,7 @@
     </row>
     <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>85</v>
@@ -22861,7 +22861,7 @@
     </row>
     <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>29</v>
@@ -22944,7 +22944,7 @@
     </row>
     <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>52</v>
@@ -23027,7 +23027,7 @@
     </row>
     <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>39</v>
@@ -23110,7 +23110,7 @@
     </row>
     <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>85</v>
@@ -23193,7 +23193,7 @@
     </row>
     <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>57</v>
@@ -23276,7 +23276,7 @@
     </row>
     <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>75</v>
@@ -23359,7 +23359,7 @@
     </row>
     <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>25</v>
@@ -23442,7 +23442,7 @@
     </row>
     <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>27</v>
@@ -23525,7 +23525,7 @@
     </row>
     <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>31</v>
@@ -23608,7 +23608,7 @@
     </row>
     <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>129</v>
@@ -23691,7 +23691,7 @@
     </row>
     <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>31</v>
@@ -23774,7 +23774,7 @@
     </row>
     <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>31</v>
@@ -23857,7 +23857,7 @@
     </row>
     <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>23</v>
@@ -23940,7 +23940,7 @@
     </row>
     <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>33</v>
@@ -24023,7 +24023,7 @@
     </row>
     <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>29</v>
@@ -24106,7 +24106,7 @@
     </row>
     <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>72</v>
@@ -24189,7 +24189,7 @@
     </row>
     <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>72</v>
@@ -24272,7 +24272,7 @@
     </row>
     <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>37</v>
@@ -24355,7 +24355,7 @@
     </row>
     <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>21</v>
@@ -24438,7 +24438,7 @@
     </row>
     <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>31</v>
@@ -24521,7 +24521,7 @@
     </row>
     <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>72</v>
@@ -24604,7 +24604,7 @@
     </row>
     <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>52</v>
@@ -24687,7 +24687,7 @@
     </row>
     <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>31</v>
@@ -24770,7 +24770,7 @@
     </row>
     <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>25</v>
@@ -24853,7 +24853,7 @@
     </row>
     <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>129</v>
@@ -24936,7 +24936,7 @@
     </row>
     <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>52</v>
@@ -25019,7 +25019,7 @@
     </row>
     <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>75</v>
@@ -25102,7 +25102,7 @@
     </row>
     <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>44</v>
@@ -25185,7 +25185,7 @@
     </row>
     <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>52</v>
@@ -25268,7 +25268,7 @@
     </row>
     <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>64</v>
@@ -25351,7 +25351,7 @@
     </row>
     <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>70</v>
@@ -25434,7 +25434,7 @@
     </row>
     <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>21</v>
@@ -25517,7 +25517,7 @@
     </row>
     <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>57</v>
@@ -25600,7 +25600,7 @@
     </row>
     <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>55</v>
@@ -25766,7 +25766,7 @@
     </row>
     <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>72</v>
@@ -25849,7 +25849,7 @@
     </row>
     <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>37</v>
@@ -25932,7 +25932,7 @@
     </row>
     <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>37</v>
@@ -26015,7 +26015,7 @@
     </row>
     <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>52</v>
@@ -26098,7 +26098,7 @@
     </row>
     <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>129</v>
@@ -26181,7 +26181,7 @@
     </row>
     <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>25</v>
@@ -26264,7 +26264,7 @@
     </row>
     <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>129</v>
@@ -26347,7 +26347,7 @@
     </row>
     <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>64</v>
@@ -26430,7 +26430,7 @@
     </row>
     <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>72</v>
@@ -26513,7 +26513,7 @@
     </row>
     <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>27</v>
@@ -26596,7 +26596,7 @@
     </row>
     <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>33</v>
@@ -26679,7 +26679,7 @@
     </row>
     <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>129</v>
@@ -26762,7 +26762,7 @@
     </row>
     <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>35</v>
@@ -26845,7 +26845,7 @@
     </row>
     <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>129</v>
@@ -26928,7 +26928,7 @@
     </row>
     <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>33</v>
@@ -27011,7 +27011,7 @@
     </row>
     <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>33</v>
@@ -27094,7 +27094,7 @@
     </row>
     <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>129</v>
@@ -27177,7 +27177,7 @@
     </row>
     <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>64</v>
@@ -27260,7 +27260,7 @@
     </row>
     <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>39</v>
@@ -27343,7 +27343,7 @@
     </row>
     <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>39</v>
@@ -27426,7 +27426,7 @@
     </row>
     <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>21</v>
@@ -27509,7 +27509,7 @@
     </row>
     <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>23</v>
@@ -27592,7 +27592,7 @@
     </row>
     <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>44</v>
@@ -27675,7 +27675,7 @@
     </row>
     <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>27</v>
@@ -27758,7 +27758,7 @@
     </row>
     <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>39</v>
@@ -27841,7 +27841,7 @@
     </row>
     <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>85</v>
@@ -27924,7 +27924,7 @@
     </row>
     <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>44</v>
@@ -28007,7 +28007,7 @@
     </row>
     <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>33</v>
@@ -28090,7 +28090,7 @@
     </row>
     <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>70</v>
@@ -28173,7 +28173,7 @@
     </row>
     <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>39</v>
@@ -28256,7 +28256,7 @@
     </row>
     <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>85</v>
@@ -28339,7 +28339,7 @@
     </row>
     <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>55</v>
@@ -28422,7 +28422,7 @@
     </row>
     <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>39</v>
@@ -28505,7 +28505,7 @@
     </row>
     <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>55</v>
@@ -28588,7 +28588,7 @@
     </row>
     <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>44</v>
@@ -28671,7 +28671,7 @@
     </row>
     <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>21</v>
@@ -28754,7 +28754,7 @@
     </row>
     <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>57</v>
@@ -28837,7 +28837,7 @@
     </row>
     <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>29</v>
@@ -28920,7 +28920,7 @@
     </row>
     <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>25</v>
@@ -29003,7 +29003,7 @@
     </row>
     <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>64</v>
@@ -29086,7 +29086,7 @@
     </row>
     <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>52</v>
@@ -29169,7 +29169,7 @@
     </row>
     <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>21</v>
@@ -29252,7 +29252,7 @@
     </row>
     <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>37</v>
@@ -29335,7 +29335,7 @@
     </row>
     <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>129</v>
@@ -29418,7 +29418,7 @@
     </row>
     <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>21</v>
@@ -29501,7 +29501,7 @@
     </row>
     <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>55</v>
@@ -29584,7 +29584,7 @@
     </row>
     <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>129</v>
@@ -29667,7 +29667,7 @@
     </row>
     <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>35</v>
@@ -29750,7 +29750,7 @@
     </row>
     <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>39</v>
@@ -29833,7 +29833,7 @@
     </row>
     <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>52</v>
@@ -29916,7 +29916,7 @@
     </row>
     <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>33</v>
@@ -29999,7 +29999,7 @@
     </row>
     <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>129</v>
@@ -30082,7 +30082,7 @@
     </row>
     <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>44</v>
@@ -30165,7 +30165,7 @@
     </row>
     <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>57</v>
@@ -30248,7 +30248,7 @@
     </row>
     <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>70</v>
@@ -30331,7 +30331,7 @@
     </row>
     <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>37</v>
@@ -30414,7 +30414,7 @@
     </row>
     <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>21</v>
@@ -30497,7 +30497,7 @@
     </row>
     <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>39</v>
@@ -30580,7 +30580,7 @@
     </row>
     <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>55</v>
@@ -30663,7 +30663,7 @@
     </row>
     <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>31</v>
@@ -30746,7 +30746,7 @@
     </row>
     <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>31</v>
@@ -30829,7 +30829,7 @@
     </row>
     <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>31</v>
@@ -30912,7 +30912,7 @@
     </row>
     <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>27</v>
@@ -30995,7 +30995,7 @@
     </row>
     <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>37</v>
@@ -31078,7 +31078,7 @@
     </row>
     <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>70</v>
@@ -31161,7 +31161,7 @@
     </row>
     <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>52</v>
@@ -31244,7 +31244,7 @@
     </row>
     <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>70</v>
@@ -31327,7 +31327,7 @@
     </row>
     <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>44</v>
@@ -31410,7 +31410,7 @@
     </row>
     <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>27</v>
@@ -31493,7 +31493,7 @@
     </row>
     <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>57</v>
@@ -31576,7 +31576,7 @@
     </row>
     <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>39</v>
@@ -31659,7 +31659,7 @@
     </row>
     <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>85</v>
@@ -31742,7 +31742,7 @@
     </row>
     <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>25</v>
@@ -31825,7 +31825,7 @@
     </row>
     <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>21</v>
@@ -31908,7 +31908,7 @@
     </row>
     <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>72</v>
@@ -31991,7 +31991,7 @@
     </row>
     <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>70</v>
@@ -32074,7 +32074,7 @@
     </row>
     <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>85</v>
@@ -32157,7 +32157,7 @@
     </row>
     <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>37</v>
@@ -32240,7 +32240,7 @@
     </row>
     <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>31</v>
@@ -32323,7 +32323,7 @@
     </row>
     <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>70</v>
@@ -32406,7 +32406,7 @@
     </row>
     <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>33</v>
@@ -32489,7 +32489,7 @@
     </row>
     <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>44</v>
@@ -32572,7 +32572,7 @@
     </row>
     <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>64</v>
@@ -32655,7 +32655,7 @@
     </row>
     <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>33</v>
@@ -32738,7 +32738,7 @@
     </row>
     <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>44</v>
@@ -32821,7 +32821,7 @@
     </row>
     <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>72</v>
@@ -32904,7 +32904,7 @@
     </row>
     <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>85</v>
@@ -32987,7 +32987,7 @@
     </row>
     <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>85</v>
@@ -33070,7 +33070,7 @@
     </row>
     <row r="369" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>64</v>
@@ -33153,7 +33153,7 @@
     </row>
     <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>72</v>
@@ -33236,7 +33236,7 @@
     </row>
     <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>33</v>
@@ -33319,7 +33319,7 @@
     </row>
     <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>39</v>
@@ -33402,7 +33402,7 @@
     </row>
     <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>55</v>
@@ -33485,7 +33485,7 @@
     </row>
     <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>33</v>
@@ -33568,7 +33568,7 @@
     </row>
     <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>85</v>
@@ -33651,7 +33651,7 @@
     </row>
     <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>85</v>
@@ -33734,7 +33734,7 @@
     </row>
     <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>64</v>
@@ -33817,7 +33817,7 @@
     </row>
     <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>57</v>
@@ -33900,7 +33900,7 @@
     </row>
     <row r="379" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>35</v>
@@ -33983,7 +33983,7 @@
     </row>
     <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>52</v>
@@ -34066,7 +34066,7 @@
     </row>
     <row r="381" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>25</v>
@@ -34149,7 +34149,7 @@
     </row>
     <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>23</v>
@@ -34232,7 +34232,7 @@
     </row>
     <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>129</v>
@@ -34297,7 +34297,7 @@
     </row>
     <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>35</v>
@@ -34380,7 +34380,7 @@
     </row>
     <row r="385" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>57</v>
@@ -34463,7 +34463,7 @@
     </row>
     <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>75</v>
@@ -34546,7 +34546,7 @@
     </row>
     <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>35</v>
@@ -34629,7 +34629,7 @@
     </row>
     <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>29</v>
@@ -34712,7 +34712,7 @@
     </row>
     <row r="389" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>25</v>
@@ -34795,7 +34795,7 @@
     </row>
     <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>35</v>
@@ -34878,7 +34878,7 @@
     </row>
     <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>35</v>
@@ -34961,7 +34961,7 @@
     </row>
     <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>25</v>
@@ -35044,7 +35044,7 @@
     </row>
     <row r="393" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>23</v>
@@ -35127,7 +35127,7 @@
     </row>
     <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>44</v>
@@ -35210,7 +35210,7 @@
     </row>
     <row r="395" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>31</v>
@@ -35293,7 +35293,7 @@
     </row>
     <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>52</v>
@@ -35376,7 +35376,7 @@
     </row>
     <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>44</v>
@@ -35459,7 +35459,7 @@
     </row>
     <row r="398" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>57</v>
@@ -35542,7 +35542,7 @@
     </row>
     <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>33</v>
@@ -35625,7 +35625,7 @@
     </row>
     <row r="400" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>55</v>
@@ -35708,7 +35708,7 @@
     </row>
     <row r="401" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>57</v>
@@ -35791,7 +35791,7 @@
     </row>
     <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>75</v>
@@ -35874,7 +35874,7 @@
     </row>
     <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>31</v>
@@ -35957,7 +35957,7 @@
     </row>
     <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>25</v>
@@ -36040,7 +36040,7 @@
     </row>
     <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>75</v>
@@ -36123,7 +36123,7 @@
     </row>
     <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>35</v>
@@ -36206,7 +36206,7 @@
     </row>
     <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>27</v>
@@ -36289,7 +36289,7 @@
     </row>
     <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>52</v>
@@ -36372,7 +36372,7 @@
     </row>
     <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>21</v>
@@ -36455,7 +36455,7 @@
     </row>
     <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>70</v>
@@ -36538,7 +36538,7 @@
     </row>
     <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>23</v>
@@ -36621,7 +36621,7 @@
     </row>
     <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>23</v>
@@ -36704,7 +36704,7 @@
     </row>
     <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>21</v>
@@ -36787,7 +36787,7 @@
     </row>
     <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>57</v>
@@ -36870,7 +36870,7 @@
     </row>
     <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>25</v>
@@ -37036,7 +37036,7 @@
     </row>
     <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>75</v>
@@ -37119,7 +37119,7 @@
     </row>
     <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>64</v>
@@ -37202,7 +37202,7 @@
     </row>
     <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>75</v>
@@ -37285,7 +37285,7 @@
     </row>
     <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>37</v>
@@ -37368,7 +37368,7 @@
     </row>
     <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>27</v>
@@ -37451,7 +37451,7 @@
     </row>
     <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>75</v>
@@ -37534,7 +37534,7 @@
     </row>
     <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>37</v>
@@ -37617,7 +37617,7 @@
     </row>
     <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>129</v>
@@ -37700,7 +37700,7 @@
     </row>
     <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>27</v>
@@ -37783,7 +37783,7 @@
     </row>
     <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>64</v>
@@ -37866,7 +37866,7 @@
     </row>
     <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>72</v>
@@ -37949,7 +37949,7 @@
     </row>
     <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>57</v>
@@ -38032,7 +38032,7 @@
     </row>
     <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>55</v>
@@ -38115,7 +38115,7 @@
     </row>
     <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>55</v>
@@ -38198,7 +38198,7 @@
     </row>
     <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>39</v>
@@ -38281,7 +38281,7 @@
     </row>
     <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>35</v>
@@ -38364,7 +38364,7 @@
     </row>
     <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>64</v>
@@ -38447,7 +38447,7 @@
     </row>
     <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>29</v>
@@ -38530,7 +38530,7 @@
     </row>
     <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>31</v>
@@ -38613,7 +38613,7 @@
     </row>
     <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>70</v>
@@ -38696,7 +38696,7 @@
     </row>
     <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>72</v>
@@ -38779,7 +38779,7 @@
     </row>
     <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>25</v>
@@ -38862,7 +38862,7 @@
     </row>
     <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>70</v>
@@ -38945,7 +38945,7 @@
     </row>
     <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>52</v>
@@ -39028,7 +39028,7 @@
     </row>
     <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>129</v>
@@ -39111,7 +39111,7 @@
     </row>
     <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>25</v>
@@ -39194,7 +39194,7 @@
     </row>
     <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>70</v>
@@ -39277,7 +39277,7 @@
     </row>
     <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>64</v>
@@ -39360,7 +39360,7 @@
     </row>
     <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>75</v>
@@ -39443,7 +39443,7 @@
     </row>
     <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>70</v>
@@ -39526,7 +39526,7 @@
     </row>
     <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>33</v>
@@ -39609,7 +39609,7 @@
     </row>
     <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>72</v>
@@ -39692,7 +39692,7 @@
     </row>
     <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>25</v>
@@ -39775,7 +39775,7 @@
     </row>
     <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>55</v>
@@ -39858,7 +39858,7 @@
     </row>
     <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>21</v>
@@ -39941,7 +39941,7 @@
     </row>
     <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>37</v>
@@ -40024,7 +40024,7 @@
     </row>
     <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>75</v>
@@ -40107,7 +40107,7 @@
     </row>
     <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>39</v>
@@ -40190,7 +40190,7 @@
     </row>
     <row r="455" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>33</v>
@@ -40273,7 +40273,7 @@
     </row>
     <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>23</v>
@@ -40356,7 +40356,7 @@
     </row>
     <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>35</v>
@@ -40439,7 +40439,7 @@
     </row>
     <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>44</v>
@@ -40522,7 +40522,7 @@
     </row>
     <row r="459" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>35</v>
@@ -40605,7 +40605,7 @@
     </row>
     <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>64</v>
@@ -40688,7 +40688,7 @@
     </row>
     <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>37</v>
@@ -40771,7 +40771,7 @@
     </row>
     <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>72</v>
@@ -40854,7 +40854,7 @@
     </row>
     <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>75</v>
@@ -40937,7 +40937,7 @@
     </row>
     <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>72</v>
@@ -41020,7 +41020,7 @@
     </row>
     <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>70</v>
@@ -41103,7 +41103,7 @@
     </row>
     <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>27</v>
@@ -41186,7 +41186,7 @@
     </row>
     <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>52</v>
@@ -41269,7 +41269,7 @@
     </row>
     <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>85</v>
@@ -41334,7 +41334,7 @@
     </row>
     <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>21</v>
@@ -41417,7 +41417,7 @@
     </row>
     <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>55</v>
@@ -41500,7 +41500,7 @@
     </row>
     <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>21</v>
@@ -41583,7 +41583,7 @@
     </row>
     <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>27</v>
@@ -41666,7 +41666,7 @@
     </row>
     <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>23</v>
@@ -41749,7 +41749,7 @@
     </row>
     <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>27</v>
@@ -41832,7 +41832,7 @@
     </row>
     <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>37</v>
@@ -41915,7 +41915,7 @@
     </row>
     <row r="476" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>23</v>
@@ -41998,7 +41998,7 @@
     </row>
     <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>55</v>
@@ -42081,7 +42081,7 @@
     </row>
     <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>39</v>
@@ -42164,7 +42164,7 @@
     </row>
     <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>33</v>
@@ -42247,7 +42247,7 @@
     </row>
     <row r="480" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>37</v>
@@ -42330,7 +42330,7 @@
     </row>
     <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>55</v>
@@ -42413,7 +42413,7 @@
     </row>
     <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>70</v>
@@ -42496,7 +42496,7 @@
     </row>
     <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>33</v>
@@ -42579,7 +42579,7 @@
     </row>
     <row r="484" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>44</v>
@@ -42662,7 +42662,7 @@
     </row>
     <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>129</v>
@@ -42745,7 +42745,7 @@
     </row>
     <row r="486" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>64</v>
@@ -42828,7 +42828,7 @@
     </row>
     <row r="487" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>37</v>
@@ -42911,7 +42911,7 @@
     </row>
     <row r="488" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>39</v>
@@ -42994,7 +42994,7 @@
     </row>
     <row r="489" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>57</v>
@@ -43077,7 +43077,7 @@
     </row>
     <row r="490" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>55</v>
@@ -43160,7 +43160,7 @@
     </row>
     <row r="491" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>33</v>
@@ -43243,7 +43243,7 @@
     </row>
     <row r="492" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>21</v>
@@ -43326,7 +43326,7 @@
     </row>
     <row r="493" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>75</v>
@@ -43409,7 +43409,7 @@
     </row>
     <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>57</v>
@@ -43492,7 +43492,7 @@
     </row>
     <row r="495" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>44</v>
@@ -43575,7 +43575,7 @@
     </row>
     <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>33</v>
@@ -43658,7 +43658,7 @@
     </row>
     <row r="497" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>129</v>
@@ -43741,7 +43741,7 @@
     </row>
     <row r="498" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>21</v>
@@ -43824,7 +43824,7 @@
     </row>
     <row r="499" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>21</v>
@@ -43907,7 +43907,7 @@
     </row>
     <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>75</v>

--- a/data/league_data/spain/21/spain_std.xlsx
+++ b/data/league_data/spain/21/spain_std.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8F16D0-55CF-914D-8140-5770F8FC5514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0D5DA2-78F5-1948-B342-AF1D038266B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="940" windowWidth="25040" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -175,9 +175,6 @@
     <t>Florian Lejeune</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>Betis</t>
   </si>
   <si>
@@ -1625,6 +1622,9 @@
   </si>
   <si>
     <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2494,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="A224" sqref="A224"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4269,10 +4269,10 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C22" s="3">
         <v>34</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>31</v>
@@ -4435,10 +4435,10 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C24" s="3">
         <v>35</v>
@@ -4518,10 +4518,10 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="C25" s="3">
         <v>34</v>
@@ -4601,10 +4601,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3">
         <v>33</v>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>33</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>37</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>23</v>
@@ -4933,7 +4933,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>23</v>
@@ -5016,10 +5016,10 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="C31" s="3">
         <v>33</v>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>31</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>21</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>21</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>44</v>
@@ -5431,10 +5431,10 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="C36" s="3">
         <v>32</v>
@@ -5514,10 +5514,10 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C37" s="3">
         <v>32</v>
@@ -5597,7 +5597,7 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>44</v>
@@ -5680,10 +5680,10 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="C39" s="3">
         <v>33</v>
@@ -5763,10 +5763,10 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="3">
         <v>35</v>
@@ -5846,10 +5846,10 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="3">
         <v>36</v>
@@ -5929,10 +5929,10 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="3">
         <v>35</v>
@@ -6012,10 +6012,10 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="3">
         <v>33</v>
@@ -6095,10 +6095,10 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="3">
         <v>34</v>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>39</v>
@@ -6261,7 +6261,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>35</v>
@@ -6344,10 +6344,10 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="3">
         <v>33</v>
@@ -6427,10 +6427,10 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="C48" s="3">
         <v>35</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>25</v>
@@ -6593,10 +6593,10 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="3">
         <v>32</v>
@@ -6676,7 +6676,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>21</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>31</v>
@@ -6842,7 +6842,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>37</v>
@@ -6925,10 +6925,10 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="3">
         <v>31</v>
@@ -7008,7 +7008,7 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>21</v>
@@ -7091,10 +7091,10 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" s="3">
         <v>32</v>
@@ -7174,10 +7174,10 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" s="3">
         <v>30</v>
@@ -7257,10 +7257,10 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C58" s="3">
         <v>31</v>
@@ -7340,10 +7340,10 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" s="3">
         <v>34</v>
@@ -7423,10 +7423,10 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" s="3">
         <v>31</v>
@@ -7506,7 +7506,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>33</v>
@@ -7589,10 +7589,10 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="3">
         <v>34</v>
@@ -7672,10 +7672,10 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" s="3">
         <v>32</v>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>37</v>
@@ -7838,10 +7838,10 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="3">
         <v>33</v>
@@ -7921,7 +7921,7 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>39</v>
@@ -8004,10 +8004,10 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" s="3">
         <v>34</v>
@@ -8087,10 +8087,10 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" s="3">
         <v>34</v>
@@ -8170,7 +8170,7 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>27</v>
@@ -8253,10 +8253,10 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C70" s="3">
         <v>34</v>
@@ -8336,10 +8336,10 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" s="3">
         <v>33</v>
@@ -8419,10 +8419,10 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="3">
         <v>35</v>
@@ -8502,7 +8502,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>31</v>
@@ -8585,10 +8585,10 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C74" s="3">
         <v>29</v>
@@ -8668,7 +8668,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>35</v>
@@ -8751,10 +8751,10 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76" s="3">
         <v>31</v>
@@ -8834,10 +8834,10 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" s="3">
         <v>32</v>
@@ -8917,10 +8917,10 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="3">
         <v>36</v>
@@ -9000,10 +9000,10 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C79" s="3">
         <v>32</v>
@@ -9083,7 +9083,7 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>23</v>
@@ -9166,7 +9166,7 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>27</v>
@@ -9249,7 +9249,7 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>33</v>
@@ -9332,10 +9332,10 @@
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C83" s="3">
         <v>31</v>
@@ -9415,7 +9415,7 @@
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>27</v>
@@ -9498,7 +9498,7 @@
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>44</v>
@@ -9581,7 +9581,7 @@
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>33</v>
@@ -9664,10 +9664,10 @@
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C87" s="3">
         <v>28</v>
@@ -9747,7 +9747,7 @@
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>31</v>
@@ -9830,7 +9830,7 @@
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>29</v>
@@ -9913,7 +9913,7 @@
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>35</v>
@@ -9996,10 +9996,10 @@
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C91" s="3">
         <v>36</v>
@@ -10079,7 +10079,7 @@
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>23</v>
@@ -10162,10 +10162,10 @@
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C93" s="3">
         <v>31</v>
@@ -10245,7 +10245,7 @@
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>27</v>
@@ -10328,7 +10328,7 @@
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>35</v>
@@ -10411,7 +10411,7 @@
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>23</v>
@@ -10494,7 +10494,7 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>39</v>
@@ -10577,10 +10577,10 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C98" s="3">
         <v>38</v>
@@ -10660,7 +10660,7 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>31</v>
@@ -10743,10 +10743,10 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C100" s="3">
         <v>33</v>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>35</v>
@@ -10909,10 +10909,10 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C102" s="3">
         <v>34</v>
@@ -10992,7 +10992,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>25</v>
@@ -11075,10 +11075,10 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C104" s="3">
         <v>35</v>
@@ -11158,10 +11158,10 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C105" s="3">
         <v>30</v>
@@ -11241,7 +11241,7 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>23</v>
@@ -11324,10 +11324,10 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C107" s="3">
         <v>28</v>
@@ -11407,7 +11407,7 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>29</v>
@@ -11490,7 +11490,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>25</v>
@@ -11573,7 +11573,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>27</v>
@@ -11656,10 +11656,10 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C111" s="3">
         <v>29</v>
@@ -11739,7 +11739,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>37</v>
@@ -11822,7 +11822,7 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>25</v>
@@ -11905,10 +11905,10 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C114" s="3">
         <v>35</v>
@@ -11988,10 +11988,10 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C115" s="3">
         <v>30</v>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>39</v>
@@ -12154,7 +12154,7 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>31</v>
@@ -12237,10 +12237,10 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C118" s="3">
         <v>32</v>
@@ -12320,10 +12320,10 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C119" s="3">
         <v>38</v>
@@ -12403,10 +12403,10 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C120" s="3">
         <v>32</v>
@@ -12486,10 +12486,10 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C121" s="3">
         <v>31</v>
@@ -12569,7 +12569,7 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>29</v>
@@ -12652,10 +12652,10 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C123" s="3">
         <v>28</v>
@@ -12735,7 +12735,7 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>39</v>
@@ -12818,10 +12818,10 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C125" s="3">
         <v>27</v>
@@ -12901,10 +12901,10 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C126" s="3">
         <v>25</v>
@@ -12984,10 +12984,10 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C127" s="3">
         <v>27</v>
@@ -13067,10 +13067,10 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C128" s="3">
         <v>37</v>
@@ -13150,10 +13150,10 @@
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C129" s="3">
         <v>34</v>
@@ -13233,7 +13233,7 @@
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>21</v>
@@ -13316,10 +13316,10 @@
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C131" s="3">
         <v>33</v>
@@ -13399,10 +13399,10 @@
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C132" s="3">
         <v>35</v>
@@ -13482,7 +13482,7 @@
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>39</v>
@@ -13565,10 +13565,10 @@
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C134" s="3">
         <v>31</v>
@@ -13648,10 +13648,10 @@
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C135" s="3">
         <v>37</v>
@@ -13731,7 +13731,7 @@
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>25</v>
@@ -13814,7 +13814,7 @@
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>44</v>
@@ -13897,7 +13897,7 @@
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>23</v>
@@ -13980,10 +13980,10 @@
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C139" s="3">
         <v>35</v>
@@ -14063,10 +14063,10 @@
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C140" s="3">
         <v>30</v>
@@ -14146,10 +14146,10 @@
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C141" s="3">
         <v>27</v>
@@ -14229,7 +14229,7 @@
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>25</v>
@@ -14312,10 +14312,10 @@
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C143" s="3">
         <v>30</v>
@@ -14395,10 +14395,10 @@
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C144" s="3">
         <v>29</v>
@@ -14478,10 +14478,10 @@
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C145" s="3">
         <v>32</v>
@@ -14561,7 +14561,7 @@
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>29</v>
@@ -14644,7 +14644,7 @@
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>21</v>
@@ -14727,7 +14727,7 @@
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>29</v>
@@ -14810,7 +14810,7 @@
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>33</v>
@@ -14893,7 +14893,7 @@
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>27</v>
@@ -14976,7 +14976,7 @@
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>27</v>
@@ -15059,7 +15059,7 @@
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>37</v>
@@ -15142,7 +15142,7 @@
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>25</v>
@@ -15225,7 +15225,7 @@
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>25</v>
@@ -15308,10 +15308,10 @@
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C155" s="3">
         <v>26</v>
@@ -15391,10 +15391,10 @@
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C156" s="3">
         <v>25</v>
@@ -15474,7 +15474,7 @@
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>44</v>
@@ -15557,10 +15557,10 @@
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C158" s="3">
         <v>29</v>
@@ -15640,7 +15640,7 @@
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>23</v>
@@ -15723,7 +15723,7 @@
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>44</v>
@@ -15806,7 +15806,7 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>31</v>
@@ -15889,7 +15889,7 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>23</v>
@@ -15972,7 +15972,7 @@
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>37</v>
@@ -16055,10 +16055,10 @@
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C164" s="3">
         <v>32</v>
@@ -16138,10 +16138,10 @@
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C165" s="3">
         <v>30</v>
@@ -16221,7 +16221,7 @@
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>21</v>
@@ -16304,10 +16304,10 @@
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C167" s="3">
         <v>25</v>
@@ -16387,10 +16387,10 @@
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C168" s="3">
         <v>32</v>
@@ -16470,7 +16470,7 @@
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>44</v>
@@ -16553,7 +16553,7 @@
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>21</v>
@@ -16636,10 +16636,10 @@
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C171" s="3">
         <v>29</v>
@@ -16719,7 +16719,7 @@
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>44</v>
@@ -16802,7 +16802,7 @@
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>37</v>
@@ -16885,7 +16885,7 @@
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>25</v>
@@ -16968,7 +16968,7 @@
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>29</v>
@@ -17051,10 +17051,10 @@
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C176" s="3">
         <v>25</v>
@@ -17134,7 +17134,7 @@
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>29</v>
@@ -17217,10 +17217,10 @@
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C178" s="3">
         <v>28</v>
@@ -17300,10 +17300,10 @@
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C179" s="3">
         <v>33</v>
@@ -17383,7 +17383,7 @@
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>29</v>
@@ -17466,7 +17466,7 @@
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>35</v>
@@ -17549,7 +17549,7 @@
     </row>
     <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>35</v>
@@ -17632,7 +17632,7 @@
     </row>
     <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>37</v>
@@ -17715,7 +17715,7 @@
     </row>
     <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>25</v>
@@ -17798,7 +17798,7 @@
     </row>
     <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>25</v>
@@ -17881,7 +17881,7 @@
     </row>
     <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>21</v>
@@ -17964,10 +17964,10 @@
     </row>
     <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C187" s="3">
         <v>29</v>
@@ -18047,7 +18047,7 @@
     </row>
     <row r="188" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>33</v>
@@ -18130,7 +18130,7 @@
     </row>
     <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>21</v>
@@ -18213,10 +18213,10 @@
     </row>
     <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C190" s="3">
         <v>24</v>
@@ -18296,7 +18296,7 @@
     </row>
     <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>39</v>
@@ -18379,10 +18379,10 @@
     </row>
     <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C192" s="3">
         <v>23</v>
@@ -18462,10 +18462,10 @@
     </row>
     <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C193" s="3">
         <v>20</v>
@@ -18545,10 +18545,10 @@
     </row>
     <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C194" s="3">
         <v>22</v>
@@ -18628,10 +18628,10 @@
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C195" s="3">
         <v>29</v>
@@ -18711,10 +18711,10 @@
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C196" s="3">
         <v>23</v>
@@ -18794,10 +18794,10 @@
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C197" s="3">
         <v>21</v>
@@ -18877,10 +18877,10 @@
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C198" s="3">
         <v>23</v>
@@ -18960,7 +18960,7 @@
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>35</v>
@@ -19043,7 +19043,7 @@
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>23</v>
@@ -19126,10 +19126,10 @@
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C201" s="3">
         <v>25</v>
@@ -19209,7 +19209,7 @@
     </row>
     <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>27</v>
@@ -19292,7 +19292,7 @@
     </row>
     <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>29</v>
@@ -19375,10 +19375,10 @@
     </row>
     <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C204" s="3">
         <v>26</v>
@@ -19458,7 +19458,7 @@
     </row>
     <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>29</v>
@@ -19541,7 +19541,7 @@
     </row>
     <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>29</v>
@@ -19624,10 +19624,10 @@
     </row>
     <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C207" s="3">
         <v>19</v>
@@ -19707,7 +19707,7 @@
     </row>
     <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>29</v>
@@ -19790,10 +19790,10 @@
     </row>
     <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C209" s="3">
         <v>26</v>
@@ -19873,7 +19873,7 @@
     </row>
     <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>29</v>
@@ -19956,10 +19956,10 @@
     </row>
     <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C211" s="3">
         <v>34</v>
@@ -20039,10 +20039,10 @@
     </row>
     <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C212" s="3">
         <v>27</v>
@@ -20122,10 +20122,10 @@
     </row>
     <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C213" s="3">
         <v>22</v>
@@ -20205,10 +20205,10 @@
     </row>
     <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C214" s="3">
         <v>19</v>
@@ -20288,7 +20288,7 @@
     </row>
     <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>37</v>
@@ -20371,10 +20371,10 @@
     </row>
     <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C216" s="3">
         <v>22</v>
@@ -20454,10 +20454,10 @@
     </row>
     <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C217" s="3">
         <v>18</v>
@@ -20537,10 +20537,10 @@
     </row>
     <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C218" s="3">
         <v>33</v>
@@ -20620,10 +20620,10 @@
     </row>
     <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C219" s="3">
         <v>18</v>
@@ -20703,10 +20703,10 @@
     </row>
     <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C220" s="3">
         <v>28</v>
@@ -20786,7 +20786,7 @@
     </row>
     <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>29</v>
@@ -20869,7 +20869,7 @@
     </row>
     <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>44</v>
@@ -20952,7 +20952,7 @@
     </row>
     <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>23</v>
@@ -21035,7 +21035,7 @@
     </row>
     <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>39</v>
@@ -21118,7 +21118,7 @@
     </row>
     <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>27</v>
@@ -21201,10 +21201,10 @@
     </row>
     <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C226" s="3">
         <v>27</v>
@@ -21284,7 +21284,7 @@
     </row>
     <row r="227" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>37</v>
@@ -21367,7 +21367,7 @@
     </row>
     <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>33</v>
@@ -21450,7 +21450,7 @@
     </row>
     <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>37</v>
@@ -21533,10 +21533,10 @@
     </row>
     <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C230" s="3">
         <v>19</v>
@@ -21616,10 +21616,10 @@
     </row>
     <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C231" s="3">
         <v>32</v>
@@ -21699,7 +21699,7 @@
     </row>
     <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>39</v>
@@ -21782,10 +21782,10 @@
     </row>
     <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C233" s="3">
         <v>29</v>
@@ -21865,7 +21865,7 @@
     </row>
     <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>29</v>
@@ -21948,7 +21948,7 @@
     </row>
     <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>35</v>
@@ -22031,7 +22031,7 @@
     </row>
     <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>35</v>
@@ -22114,10 +22114,10 @@
     </row>
     <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C237" s="3">
         <v>25</v>
@@ -22197,10 +22197,10 @@
     </row>
     <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C238" s="3">
         <v>28</v>
@@ -22280,7 +22280,7 @@
     </row>
     <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>31</v>
@@ -22363,10 +22363,10 @@
     </row>
     <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C240" s="3">
         <v>24</v>
@@ -22446,10 +22446,10 @@
     </row>
     <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C241" s="3">
         <v>22</v>
@@ -22529,7 +22529,7 @@
     </row>
     <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>44</v>
@@ -22612,10 +22612,10 @@
     </row>
     <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C243" s="3">
         <v>29</v>
@@ -22695,7 +22695,7 @@
     </row>
     <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>37</v>
@@ -22778,10 +22778,10 @@
     </row>
     <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C245" s="3">
         <v>19</v>
@@ -22861,7 +22861,7 @@
     </row>
     <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>29</v>
@@ -22944,10 +22944,10 @@
     </row>
     <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C247" s="3">
         <v>28</v>
@@ -23027,7 +23027,7 @@
     </row>
     <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>39</v>
@@ -23110,10 +23110,10 @@
     </row>
     <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C249" s="3">
         <v>25</v>
@@ -23193,10 +23193,10 @@
     </row>
     <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C250" s="3">
         <v>33</v>
@@ -23276,10 +23276,10 @@
     </row>
     <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C251" s="3">
         <v>32</v>
@@ -23359,7 +23359,7 @@
     </row>
     <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>25</v>
@@ -23442,7 +23442,7 @@
     </row>
     <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>27</v>
@@ -23525,7 +23525,7 @@
     </row>
     <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>31</v>
@@ -23608,10 +23608,10 @@
     </row>
     <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C255" s="3">
         <v>19</v>
@@ -23691,7 +23691,7 @@
     </row>
     <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>31</v>
@@ -23774,7 +23774,7 @@
     </row>
     <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>31</v>
@@ -23857,7 +23857,7 @@
     </row>
     <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>23</v>
@@ -23940,7 +23940,7 @@
     </row>
     <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>33</v>
@@ -24023,7 +24023,7 @@
     </row>
     <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>29</v>
@@ -24106,10 +24106,10 @@
     </row>
     <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C261" s="3">
         <v>22</v>
@@ -24189,10 +24189,10 @@
     </row>
     <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C262" s="3">
         <v>21</v>
@@ -24272,7 +24272,7 @@
     </row>
     <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>37</v>
@@ -24355,7 +24355,7 @@
     </row>
     <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>21</v>
@@ -24438,7 +24438,7 @@
     </row>
     <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>31</v>
@@ -24521,10 +24521,10 @@
     </row>
     <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C266" s="3">
         <v>25</v>
@@ -24604,10 +24604,10 @@
     </row>
     <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C267" s="3">
         <v>24</v>
@@ -24687,7 +24687,7 @@
     </row>
     <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>31</v>
@@ -24770,7 +24770,7 @@
     </row>
     <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>25</v>
@@ -24853,10 +24853,10 @@
     </row>
     <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C270" s="3">
         <v>22</v>
@@ -24936,10 +24936,10 @@
     </row>
     <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C271" s="3">
         <v>27</v>
@@ -25019,10 +25019,10 @@
     </row>
     <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C272" s="3">
         <v>25</v>
@@ -25102,7 +25102,7 @@
     </row>
     <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>44</v>
@@ -25185,10 +25185,10 @@
     </row>
     <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C274" s="3">
         <v>29</v>
@@ -25268,10 +25268,10 @@
     </row>
     <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C275" s="3">
         <v>19</v>
@@ -25351,10 +25351,10 @@
     </row>
     <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C276" s="3">
         <v>30</v>
@@ -25434,7 +25434,7 @@
     </row>
     <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>21</v>
@@ -25517,10 +25517,10 @@
     </row>
     <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C278" s="3">
         <v>34</v>
@@ -25600,10 +25600,10 @@
     </row>
     <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C279" s="3">
         <v>24</v>
@@ -25683,10 +25683,10 @@
     </row>
     <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C280" s="3">
         <v>14</v>
@@ -25766,10 +25766,10 @@
     </row>
     <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C281" s="3">
         <v>16</v>
@@ -25849,7 +25849,7 @@
     </row>
     <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>37</v>
@@ -25932,7 +25932,7 @@
     </row>
     <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>37</v>
@@ -26015,10 +26015,10 @@
     </row>
     <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C284" s="3">
         <v>27</v>
@@ -26098,10 +26098,10 @@
     </row>
     <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C285" s="3">
         <v>19</v>
@@ -26181,7 +26181,7 @@
     </row>
     <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>25</v>
@@ -26264,10 +26264,10 @@
     </row>
     <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C287" s="3">
         <v>27</v>
@@ -26347,10 +26347,10 @@
     </row>
     <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C288" s="3">
         <v>17</v>
@@ -26430,10 +26430,10 @@
     </row>
     <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C289" s="3">
         <v>19</v>
@@ -26513,7 +26513,7 @@
     </row>
     <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>27</v>
@@ -26596,7 +26596,7 @@
     </row>
     <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>33</v>
@@ -26679,10 +26679,10 @@
     </row>
     <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C292" s="3">
         <v>23</v>
@@ -26762,7 +26762,7 @@
     </row>
     <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>35</v>
@@ -26845,10 +26845,10 @@
     </row>
     <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C294" s="3">
         <v>13</v>
@@ -26928,7 +26928,7 @@
     </row>
     <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>33</v>
@@ -27011,7 +27011,7 @@
     </row>
     <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>33</v>
@@ -27094,10 +27094,10 @@
     </row>
     <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C297" s="3">
         <v>24</v>
@@ -27177,10 +27177,10 @@
     </row>
     <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C298" s="3">
         <v>23</v>
@@ -27260,7 +27260,7 @@
     </row>
     <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>39</v>
@@ -27343,7 +27343,7 @@
     </row>
     <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>39</v>
@@ -27426,7 +27426,7 @@
     </row>
     <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>21</v>
@@ -27509,7 +27509,7 @@
     </row>
     <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>23</v>
@@ -27592,7 +27592,7 @@
     </row>
     <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>44</v>
@@ -27675,7 +27675,7 @@
     </row>
     <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>27</v>
@@ -27758,7 +27758,7 @@
     </row>
     <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>39</v>
@@ -27841,10 +27841,10 @@
     </row>
     <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C306" s="3">
         <v>21</v>
@@ -27924,7 +27924,7 @@
     </row>
     <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>44</v>
@@ -28007,7 +28007,7 @@
     </row>
     <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>33</v>
@@ -28090,10 +28090,10 @@
     </row>
     <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C309" s="3">
         <v>16</v>
@@ -28173,7 +28173,7 @@
     </row>
     <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>39</v>
@@ -28256,10 +28256,10 @@
     </row>
     <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C311" s="3">
         <v>28</v>
@@ -28339,10 +28339,10 @@
     </row>
     <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C312" s="3">
         <v>21</v>
@@ -28422,7 +28422,7 @@
     </row>
     <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>39</v>
@@ -28505,10 +28505,10 @@
     </row>
     <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C314" s="3">
         <v>27</v>
@@ -28588,7 +28588,7 @@
     </row>
     <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>44</v>
@@ -28671,7 +28671,7 @@
     </row>
     <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>21</v>
@@ -28754,10 +28754,10 @@
     </row>
     <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C317" s="3">
         <v>30</v>
@@ -28837,7 +28837,7 @@
     </row>
     <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>29</v>
@@ -28920,7 +28920,7 @@
     </row>
     <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>25</v>
@@ -29003,10 +29003,10 @@
     </row>
     <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C320" s="3">
         <v>21</v>
@@ -29086,10 +29086,10 @@
     </row>
     <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C321" s="3">
         <v>26</v>
@@ -29169,7 +29169,7 @@
     </row>
     <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>21</v>
@@ -29252,7 +29252,7 @@
     </row>
     <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>37</v>
@@ -29335,10 +29335,10 @@
     </row>
     <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C324" s="3">
         <v>21</v>
@@ -29418,7 +29418,7 @@
     </row>
     <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>21</v>
@@ -29501,10 +29501,10 @@
     </row>
     <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C326" s="3">
         <v>30</v>
@@ -29584,10 +29584,10 @@
     </row>
     <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C327" s="3">
         <v>22</v>
@@ -29667,7 +29667,7 @@
     </row>
     <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>35</v>
@@ -29750,7 +29750,7 @@
     </row>
     <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>39</v>
@@ -29833,10 +29833,10 @@
     </row>
     <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C330" s="3">
         <v>16</v>
@@ -29916,7 +29916,7 @@
     </row>
     <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>33</v>
@@ -29999,10 +29999,10 @@
     </row>
     <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C332" s="3">
         <v>16</v>
@@ -30082,7 +30082,7 @@
     </row>
     <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>44</v>
@@ -30165,10 +30165,10 @@
     </row>
     <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C334" s="3">
         <v>18</v>
@@ -30248,10 +30248,10 @@
     </row>
     <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C335" s="3">
         <v>13</v>
@@ -30331,7 +30331,7 @@
     </row>
     <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>37</v>
@@ -30414,7 +30414,7 @@
     </row>
     <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>21</v>
@@ -30497,7 +30497,7 @@
     </row>
     <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>39</v>
@@ -30580,10 +30580,10 @@
     </row>
     <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C339" s="3">
         <v>10</v>
@@ -30663,7 +30663,7 @@
     </row>
     <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>31</v>
@@ -30746,7 +30746,7 @@
     </row>
     <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>31</v>
@@ -30829,7 +30829,7 @@
     </row>
     <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>31</v>
@@ -30912,7 +30912,7 @@
     </row>
     <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>27</v>
@@ -30995,7 +30995,7 @@
     </row>
     <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>37</v>
@@ -31078,10 +31078,10 @@
     </row>
     <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C345" s="3">
         <v>13</v>
@@ -31161,10 +31161,10 @@
     </row>
     <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C346" s="3">
         <v>21</v>
@@ -31244,10 +31244,10 @@
     </row>
     <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C347" s="3">
         <v>28</v>
@@ -31327,7 +31327,7 @@
     </row>
     <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>44</v>
@@ -31410,7 +31410,7 @@
     </row>
     <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>27</v>
@@ -31493,10 +31493,10 @@
     </row>
     <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C350" s="3">
         <v>24</v>
@@ -31576,7 +31576,7 @@
     </row>
     <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>39</v>
@@ -31659,10 +31659,10 @@
     </row>
     <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C352" s="3">
         <v>17</v>
@@ -31742,7 +31742,7 @@
     </row>
     <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>25</v>
@@ -31825,7 +31825,7 @@
     </row>
     <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>21</v>
@@ -31908,10 +31908,10 @@
     </row>
     <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C355" s="3">
         <v>17</v>
@@ -31991,10 +31991,10 @@
     </row>
     <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C356" s="3">
         <v>22</v>
@@ -32074,10 +32074,10 @@
     </row>
     <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C357" s="3">
         <v>13</v>
@@ -32157,7 +32157,7 @@
     </row>
     <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>37</v>
@@ -32240,7 +32240,7 @@
     </row>
     <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>31</v>
@@ -32323,10 +32323,10 @@
     </row>
     <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C360" s="3">
         <v>23</v>
@@ -32406,7 +32406,7 @@
     </row>
     <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>33</v>
@@ -32489,7 +32489,7 @@
     </row>
     <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>44</v>
@@ -32572,10 +32572,10 @@
     </row>
     <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C363" s="3">
         <v>20</v>
@@ -32655,7 +32655,7 @@
     </row>
     <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>33</v>
@@ -32738,7 +32738,7 @@
     </row>
     <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>44</v>
@@ -32821,10 +32821,10 @@
     </row>
     <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C366" s="3">
         <v>20</v>
@@ -32904,10 +32904,10 @@
     </row>
     <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C367" s="3">
         <v>9</v>
@@ -32987,10 +32987,10 @@
     </row>
     <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C368" s="3">
         <v>28</v>
@@ -33070,10 +33070,10 @@
     </row>
     <row r="369" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C369" s="3">
         <v>11</v>
@@ -33153,10 +33153,10 @@
     </row>
     <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C370" s="3">
         <v>14</v>
@@ -33236,7 +33236,7 @@
     </row>
     <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>33</v>
@@ -33319,7 +33319,7 @@
     </row>
     <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>39</v>
@@ -33402,10 +33402,10 @@
     </row>
     <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C373" s="3">
         <v>15</v>
@@ -33485,7 +33485,7 @@
     </row>
     <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>33</v>
@@ -33568,10 +33568,10 @@
     </row>
     <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C375" s="3">
         <v>12</v>
@@ -33651,10 +33651,10 @@
     </row>
     <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C376" s="3">
         <v>8</v>
@@ -33734,10 +33734,10 @@
     </row>
     <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C377" s="3">
         <v>8</v>
@@ -33817,10 +33817,10 @@
     </row>
     <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C378" s="3">
         <v>9</v>
@@ -33900,7 +33900,7 @@
     </row>
     <row r="379" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>35</v>
@@ -33983,10 +33983,10 @@
     </row>
     <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C380" s="3">
         <v>11</v>
@@ -34066,7 +34066,7 @@
     </row>
     <row r="381" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>25</v>
@@ -34149,7 +34149,7 @@
     </row>
     <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>23</v>
@@ -34232,10 +34232,10 @@
     </row>
     <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C383" s="3">
         <v>17</v>
@@ -34297,7 +34297,7 @@
     </row>
     <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>35</v>
@@ -34380,10 +34380,10 @@
     </row>
     <row r="385" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C385" s="3">
         <v>11</v>
@@ -34463,10 +34463,10 @@
     </row>
     <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C386" s="3">
         <v>14</v>
@@ -34546,7 +34546,7 @@
     </row>
     <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>35</v>
@@ -34629,7 +34629,7 @@
     </row>
     <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>29</v>
@@ -34712,7 +34712,7 @@
     </row>
     <row r="389" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>25</v>
@@ -34795,7 +34795,7 @@
     </row>
     <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>35</v>
@@ -34878,7 +34878,7 @@
     </row>
     <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>35</v>
@@ -34961,7 +34961,7 @@
     </row>
     <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>25</v>
@@ -35044,7 +35044,7 @@
     </row>
     <row r="393" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>23</v>
@@ -35127,7 +35127,7 @@
     </row>
     <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>44</v>
@@ -35210,7 +35210,7 @@
     </row>
     <row r="395" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>31</v>
@@ -35293,10 +35293,10 @@
     </row>
     <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C396" s="3">
         <v>16</v>
@@ -35376,7 +35376,7 @@
     </row>
     <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>44</v>
@@ -35459,10 +35459,10 @@
     </row>
     <row r="398" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C398" s="3">
         <v>12</v>
@@ -35542,7 +35542,7 @@
     </row>
     <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>33</v>
@@ -35625,10 +35625,10 @@
     </row>
     <row r="400" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C400" s="3">
         <v>13</v>
@@ -35708,10 +35708,10 @@
     </row>
     <row r="401" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C401" s="3">
         <v>9</v>
@@ -35791,10 +35791,10 @@
     </row>
     <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C402" s="3">
         <v>8</v>
@@ -35874,7 +35874,7 @@
     </row>
     <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>31</v>
@@ -35957,7 +35957,7 @@
     </row>
     <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>25</v>
@@ -36040,10 +36040,10 @@
     </row>
     <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C405" s="3">
         <v>22</v>
@@ -36123,7 +36123,7 @@
     </row>
     <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>35</v>
@@ -36206,7 +36206,7 @@
     </row>
     <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>27</v>
@@ -36289,10 +36289,10 @@
     </row>
     <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C408" s="3">
         <v>15</v>
@@ -36372,7 +36372,7 @@
     </row>
     <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>21</v>
@@ -36455,10 +36455,10 @@
     </row>
     <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C410" s="3">
         <v>12</v>
@@ -36538,7 +36538,7 @@
     </row>
     <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>23</v>
@@ -36621,7 +36621,7 @@
     </row>
     <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>23</v>
@@ -36704,7 +36704,7 @@
     </row>
     <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>21</v>
@@ -36787,10 +36787,10 @@
     </row>
     <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C414" s="3">
         <v>20</v>
@@ -36870,7 +36870,7 @@
     </row>
     <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>25</v>
@@ -36953,10 +36953,10 @@
     </row>
     <row r="416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C416" s="3">
         <v>8</v>
@@ -37036,10 +37036,10 @@
     </row>
     <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C417" s="3">
         <v>11</v>
@@ -37119,10 +37119,10 @@
     </row>
     <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C418" s="3">
         <v>9</v>
@@ -37202,10 +37202,10 @@
     </row>
     <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C419" s="3">
         <v>16</v>
@@ -37285,7 +37285,7 @@
     </row>
     <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>37</v>
@@ -37368,7 +37368,7 @@
     </row>
     <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>27</v>
@@ -37451,10 +37451,10 @@
     </row>
     <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C422" s="3">
         <v>12</v>
@@ -37534,7 +37534,7 @@
     </row>
     <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>37</v>
@@ -37617,10 +37617,10 @@
     </row>
     <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C424" s="3">
         <v>14</v>
@@ -37700,7 +37700,7 @@
     </row>
     <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>27</v>
@@ -37783,10 +37783,10 @@
     </row>
     <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C426" s="3">
         <v>11</v>
@@ -37866,10 +37866,10 @@
     </row>
     <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C427" s="3">
         <v>5</v>
@@ -37949,10 +37949,10 @@
     </row>
     <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C428" s="3">
         <v>5</v>
@@ -38032,10 +38032,10 @@
     </row>
     <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C429" s="3">
         <v>17</v>
@@ -38115,10 +38115,10 @@
     </row>
     <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C430" s="3">
         <v>5</v>
@@ -38198,7 +38198,7 @@
     </row>
     <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>39</v>
@@ -38281,7 +38281,7 @@
     </row>
     <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>35</v>
@@ -38364,10 +38364,10 @@
     </row>
     <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C433" s="3">
         <v>16</v>
@@ -38447,7 +38447,7 @@
     </row>
     <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>29</v>
@@ -38530,7 +38530,7 @@
     </row>
     <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>31</v>
@@ -38613,10 +38613,10 @@
     </row>
     <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C436" s="3">
         <v>11</v>
@@ -38696,10 +38696,10 @@
     </row>
     <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C437" s="3">
         <v>15</v>
@@ -38779,7 +38779,7 @@
     </row>
     <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>25</v>
@@ -38862,10 +38862,10 @@
     </row>
     <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C439" s="3">
         <v>9</v>
@@ -38945,10 +38945,10 @@
     </row>
     <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C440" s="3">
         <v>10</v>
@@ -39028,10 +39028,10 @@
     </row>
     <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C441" s="3">
         <v>10</v>
@@ -39111,7 +39111,7 @@
     </row>
     <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>25</v>
@@ -39194,10 +39194,10 @@
     </row>
     <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C443" s="3">
         <v>12</v>
@@ -39277,10 +39277,10 @@
     </row>
     <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C444" s="3">
         <v>9</v>
@@ -39360,10 +39360,10 @@
     </row>
     <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C445" s="3">
         <v>4</v>
@@ -39443,10 +39443,10 @@
     </row>
     <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C446" s="3">
         <v>4</v>
@@ -39526,7 +39526,7 @@
     </row>
     <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>33</v>
@@ -39609,10 +39609,10 @@
     </row>
     <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C448" s="3">
         <v>8</v>
@@ -39692,7 +39692,7 @@
     </row>
     <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>25</v>
@@ -39775,10 +39775,10 @@
     </row>
     <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C450" s="3">
         <v>7</v>
@@ -39858,7 +39858,7 @@
     </row>
     <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>21</v>
@@ -39941,7 +39941,7 @@
     </row>
     <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>37</v>
@@ -40024,10 +40024,10 @@
     </row>
     <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C453" s="3">
         <v>13</v>
@@ -40107,7 +40107,7 @@
     </row>
     <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>39</v>
@@ -40190,7 +40190,7 @@
     </row>
     <row r="455" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>33</v>
@@ -40273,7 +40273,7 @@
     </row>
     <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>23</v>
@@ -40356,7 +40356,7 @@
     </row>
     <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>35</v>
@@ -40439,7 +40439,7 @@
     </row>
     <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>44</v>
@@ -40522,7 +40522,7 @@
     </row>
     <row r="459" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>35</v>
@@ -40605,10 +40605,10 @@
     </row>
     <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C460" s="3">
         <v>16</v>
@@ -40688,7 +40688,7 @@
     </row>
     <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>37</v>
@@ -40771,10 +40771,10 @@
     </row>
     <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C462" s="3">
         <v>9</v>
@@ -40854,10 +40854,10 @@
     </row>
     <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C463" s="3">
         <v>3</v>
@@ -40937,10 +40937,10 @@
     </row>
     <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C464" s="3">
         <v>3</v>
@@ -41020,10 +41020,10 @@
     </row>
     <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C465" s="3">
         <v>9</v>
@@ -41103,7 +41103,7 @@
     </row>
     <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>27</v>
@@ -41186,10 +41186,10 @@
     </row>
     <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C467" s="3">
         <v>5</v>
@@ -41269,10 +41269,10 @@
     </row>
     <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C468" s="3">
         <v>4</v>
@@ -41334,7 +41334,7 @@
     </row>
     <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>21</v>
@@ -41417,10 +41417,10 @@
     </row>
     <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C470" s="3">
         <v>4</v>
@@ -41500,7 +41500,7 @@
     </row>
     <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>21</v>
@@ -41583,7 +41583,7 @@
     </row>
     <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>27</v>
@@ -41666,7 +41666,7 @@
     </row>
     <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>23</v>
@@ -41749,7 +41749,7 @@
     </row>
     <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>27</v>
@@ -41832,7 +41832,7 @@
     </row>
     <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>37</v>
@@ -41915,7 +41915,7 @@
     </row>
     <row r="476" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>23</v>
@@ -41998,10 +41998,10 @@
     </row>
     <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C477" s="3">
         <v>9</v>
@@ -42081,7 +42081,7 @@
     </row>
     <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>39</v>
@@ -42164,7 +42164,7 @@
     </row>
     <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>33</v>
@@ -42247,7 +42247,7 @@
     </row>
     <row r="480" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>37</v>
@@ -42330,10 +42330,10 @@
     </row>
     <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C481" s="3">
         <v>3</v>
@@ -42413,10 +42413,10 @@
     </row>
     <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C482" s="3">
         <v>2</v>
@@ -42496,7 +42496,7 @@
     </row>
     <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>33</v>
@@ -42579,7 +42579,7 @@
     </row>
     <row r="484" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>44</v>
@@ -42662,10 +42662,10 @@
     </row>
     <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C485" s="3">
         <v>5</v>
@@ -42745,10 +42745,10 @@
     </row>
     <row r="486" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C486" s="3">
         <v>11</v>
@@ -42828,7 +42828,7 @@
     </row>
     <row r="487" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>37</v>
@@ -42911,7 +42911,7 @@
     </row>
     <row r="488" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>39</v>
@@ -42994,10 +42994,10 @@
     </row>
     <row r="489" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C489" s="3">
         <v>15</v>
@@ -43077,10 +43077,10 @@
     </row>
     <row r="490" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C490" s="3">
         <v>2</v>
@@ -43160,7 +43160,7 @@
     </row>
     <row r="491" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>33</v>
@@ -43243,7 +43243,7 @@
     </row>
     <row r="492" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>21</v>
@@ -43326,10 +43326,10 @@
     </row>
     <row r="493" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C493" s="3">
         <v>5</v>
@@ -43409,10 +43409,10 @@
     </row>
     <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C494" s="3">
         <v>5</v>
@@ -43492,7 +43492,7 @@
     </row>
     <row r="495" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>44</v>
@@ -43575,7 +43575,7 @@
     </row>
     <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>33</v>
@@ -43658,10 +43658,10 @@
     </row>
     <row r="497" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C497" s="3">
         <v>2</v>
@@ -43741,7 +43741,7 @@
     </row>
     <row r="498" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>21</v>
@@ -43824,7 +43824,7 @@
     </row>
     <row r="499" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>21</v>
@@ -43907,10 +43907,10 @@
     </row>
     <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C500" s="3">
         <v>6</v>
